--- a/Vargas Olvera Francisco Eduardo 20212.xlsx
+++ b/Vargas Olvera Francisco Eduardo 20212.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="827">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="823">
   <si>
     <t>NC</t>
   </si>
@@ -2137,9 +2137,6 @@
     <t>ELIAS ALONSO</t>
   </si>
   <si>
-    <t>JESUS</t>
-  </si>
-  <si>
     <t>KARLA RENATA</t>
   </si>
   <si>
@@ -2200,9 +2197,6 @@
     <t>eliashernandezdiaz05@gmail.com</t>
   </si>
   <si>
-    <t>jesushernandezsarmiento108@gmail.com</t>
-  </si>
-  <si>
     <t>karlarenatalc@gmail.com</t>
   </si>
   <si>
@@ -2263,9 +2257,6 @@
     <t>5530259182</t>
   </si>
   <si>
-    <t>2722146369</t>
-  </si>
-  <si>
     <t>2722371602</t>
   </si>
   <si>
@@ -2357,9 +2348,6 @@
   </si>
   <si>
     <t>FRANCISCO JAVIER HERNANDEZ GONZÁLEZ</t>
-  </si>
-  <si>
-    <t>JORGE HERNÁNDEZ ATLAHUA</t>
   </si>
   <si>
     <t>DAVID ARTURO TEOBAL MONTIEL</t>
@@ -6102,7 +6090,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6166,22 +6154,22 @@
         <v>697</v>
       </c>
       <c r="E2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="F2" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="G2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="H2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="I2" t="s">
-        <v>792</v>
+        <v>788</v>
       </c>
       <c r="J2" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -6201,19 +6189,19 @@
         <v>698</v>
       </c>
       <c r="E3" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="F3" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="G3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="H3" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="J3" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -6233,22 +6221,22 @@
         <v>699</v>
       </c>
       <c r="E4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="G4" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="H4" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="I4" t="s">
-        <v>793</v>
+        <v>789</v>
       </c>
       <c r="J4" t="s">
-        <v>810</v>
+        <v>806</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -6268,22 +6256,22 @@
         <v>700</v>
       </c>
       <c r="E5" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="F5" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="G5" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="H5" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="I5" t="s">
-        <v>794</v>
+        <v>790</v>
       </c>
       <c r="J5" t="s">
-        <v>811</v>
+        <v>807</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -6303,22 +6291,22 @@
         <v>701</v>
       </c>
       <c r="E6" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="F6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="G6" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="H6" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="I6" t="s">
-        <v>795</v>
+        <v>791</v>
       </c>
       <c r="J6" t="s">
-        <v>812</v>
+        <v>808</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -6338,22 +6326,22 @@
         <v>702</v>
       </c>
       <c r="E7" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="F7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="G7" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H7" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="I7" t="s">
-        <v>796</v>
+        <v>792</v>
       </c>
       <c r="J7" t="s">
-        <v>813</v>
+        <v>809</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -6373,22 +6361,22 @@
         <v>703</v>
       </c>
       <c r="E8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="F8" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="G8" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="H8" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="I8" t="s">
-        <v>797</v>
+        <v>793</v>
       </c>
       <c r="J8" t="s">
-        <v>814</v>
+        <v>810</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -6408,19 +6396,19 @@
         <v>704</v>
       </c>
       <c r="E9" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="F9" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="H9" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="I9" t="s">
-        <v>798</v>
+        <v>794</v>
       </c>
       <c r="J9" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -6440,22 +6428,22 @@
         <v>705</v>
       </c>
       <c r="E10" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="F10" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="G10" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="H10" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="I10" t="s">
-        <v>799</v>
+        <v>795</v>
       </c>
       <c r="J10" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -6463,34 +6451,31 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11">
-        <v>20330051920346</v>
+        <v>20330051920271</v>
       </c>
       <c r="B11" t="s">
-        <v>290</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>695</v>
       </c>
       <c r="D11" t="s">
         <v>706</v>
       </c>
       <c r="E11" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F11" t="s">
-        <v>748</v>
-      </c>
-      <c r="G11" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="H11" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="I11" t="s">
-        <v>727</v>
+        <v>796</v>
       </c>
       <c r="J11" t="s">
-        <v>748</v>
+        <v>813</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -6498,95 +6483,98 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12">
-        <v>20330051920271</v>
+        <v>20330051920272</v>
       </c>
       <c r="B12" t="s">
         <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="D12" t="s">
         <v>707</v>
       </c>
       <c r="E12" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="F12" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="H12" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="I12" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="J12" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13">
-        <v>20330051920272</v>
+        <v>19220030050208</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>687</v>
       </c>
       <c r="C13" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="D13" t="s">
         <v>708</v>
       </c>
       <c r="E13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="F13" t="s">
-        <v>750</v>
+        <v>748</v>
+      </c>
+      <c r="G13" t="s">
+        <v>763</v>
       </c>
       <c r="H13" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="I13" t="s">
-        <v>801</v>
-      </c>
-      <c r="J13" t="s">
-        <v>818</v>
+        <v>798</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14">
-        <v>19220030050208</v>
+        <v>20330051920273</v>
       </c>
       <c r="B14" t="s">
-        <v>687</v>
+        <v>550</v>
       </c>
       <c r="C14" t="s">
-        <v>696</v>
+        <v>21</v>
       </c>
       <c r="D14" t="s">
         <v>709</v>
       </c>
       <c r="E14" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="F14" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="G14" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="H14" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="I14" t="s">
-        <v>802</v>
+        <v>799</v>
+      </c>
+      <c r="J14" t="s">
+        <v>815</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -6594,34 +6582,31 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15">
-        <v>20330051920273</v>
+        <v>20330051920274</v>
       </c>
       <c r="B15" t="s">
-        <v>550</v>
+        <v>298</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>710</v>
       </c>
       <c r="E15" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F15" t="s">
-        <v>752</v>
-      </c>
-      <c r="G15" t="s">
-        <v>767</v>
+        <v>750</v>
       </c>
       <c r="H15" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="I15" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="J15" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -6629,63 +6614,66 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16">
-        <v>20330051920274</v>
+        <v>20330051920276</v>
       </c>
       <c r="B16" t="s">
-        <v>298</v>
+        <v>688</v>
       </c>
       <c r="C16" t="s">
-        <v>60</v>
+        <v>316</v>
       </c>
       <c r="D16" t="s">
         <v>711</v>
       </c>
       <c r="E16" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="F16" t="s">
-        <v>753</v>
+        <v>751</v>
+      </c>
+      <c r="G16" t="s">
+        <v>765</v>
       </c>
       <c r="H16" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="I16" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="J16" t="s">
-        <v>820</v>
+        <v>817</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17">
-        <v>20330051920276</v>
+        <v>19330051920238</v>
       </c>
       <c r="B17" t="s">
-        <v>688</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
-        <v>316</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
         <v>712</v>
       </c>
       <c r="E17" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="F17" t="s">
-        <v>754</v>
-      </c>
-      <c r="G17" t="s">
-        <v>768</v>
+        <v>752</v>
       </c>
       <c r="H17" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="I17" t="s">
-        <v>805</v>
+        <v>732</v>
       </c>
       <c r="J17" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -6693,167 +6681,135 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18">
-        <v>19330051920238</v>
+        <v>20330051920278</v>
       </c>
       <c r="B18" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>305</v>
       </c>
       <c r="D18" t="s">
         <v>713</v>
       </c>
       <c r="E18" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="F18" t="s">
-        <v>755</v>
+        <v>753</v>
+      </c>
+      <c r="G18" t="s">
+        <v>766</v>
       </c>
       <c r="H18" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="I18" t="s">
-        <v>734</v>
+        <v>802</v>
       </c>
       <c r="J18" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="K18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19">
-        <v>20330051920278</v>
+        <v>20330051920279</v>
       </c>
       <c r="B19" t="s">
-        <v>62</v>
+        <v>689</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>34</v>
       </c>
       <c r="D19" t="s">
         <v>714</v>
       </c>
       <c r="E19" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F19" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="G19" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="H19" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="I19" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="J19" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:11">
       <c r="A20">
-        <v>20330051920279</v>
+        <v>20330051920281</v>
       </c>
       <c r="B20" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>324</v>
       </c>
       <c r="D20" t="s">
         <v>715</v>
       </c>
       <c r="E20" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="F20" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="G20" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
       <c r="H20" t="s">
-        <v>789</v>
-      </c>
-      <c r="I20" t="s">
-        <v>807</v>
+        <v>786</v>
       </c>
       <c r="J20" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:11">
       <c r="A21">
-        <v>20330051920281</v>
+        <v>20330051920282</v>
       </c>
       <c r="B21" t="s">
-        <v>690</v>
+        <v>50</v>
       </c>
       <c r="C21" t="s">
-        <v>324</v>
+        <v>62</v>
       </c>
       <c r="D21" t="s">
         <v>716</v>
       </c>
       <c r="E21" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="F21" t="s">
-        <v>758</v>
-      </c>
-      <c r="G21" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="H21" t="s">
-        <v>790</v>
+        <v>787</v>
+      </c>
+      <c r="I21" t="s">
+        <v>804</v>
       </c>
       <c r="J21" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
-      <c r="A22">
-        <v>20330051920282</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>62</v>
-      </c>
-      <c r="D22" t="s">
-        <v>717</v>
-      </c>
-      <c r="E22" t="s">
-        <v>738</v>
-      </c>
-      <c r="F22" t="s">
-        <v>759</v>
-      </c>
-      <c r="H22" t="s">
-        <v>791</v>
-      </c>
-      <c r="I22" t="s">
-        <v>808</v>
-      </c>
-      <c r="J22" t="s">
-        <v>826</v>
-      </c>
-      <c r="K22">
         <v>0</v>
       </c>
     </row>
